--- a/data_year/zb/农业/农村居民家庭生产性固定资产原值.xlsx
+++ b/data_year/zb/农业/农村居民家庭生产性固定资产原值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,442 +483,102 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>621.0393299999999</v>
+        <v>1402.2</v>
       </c>
       <c r="C2" t="n">
-        <v>148.2195906</v>
+        <v>76.97</v>
       </c>
       <c r="D2" t="n">
-        <v>3321.659522</v>
+        <v>7444.3</v>
       </c>
       <c r="E2" t="n">
-        <v>334.7917229</v>
+        <v>796.92</v>
       </c>
       <c r="F2" t="n">
-        <v>29.01542956</v>
+        <v>187</v>
       </c>
       <c r="G2" t="n">
-        <v>149.2360972</v>
+        <v>543.0700000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>12.85601034</v>
+        <v>58.37</v>
       </c>
       <c r="I2" t="n">
-        <v>4676.979285</v>
+        <v>10706.38</v>
       </c>
       <c r="J2" t="n">
-        <v>60.16157731</v>
+        <v>197.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>630.3070832</v>
+        <v>2294.550242</v>
       </c>
       <c r="C3" t="n">
-        <v>130.8128163</v>
+        <v>144.25</v>
       </c>
       <c r="D3" t="n">
-        <v>3544.085408</v>
+        <v>10770.47</v>
       </c>
       <c r="E3" t="n">
-        <v>349.8862443</v>
+        <v>1011.99</v>
       </c>
       <c r="F3" t="n">
-        <v>27.77882387</v>
+        <v>317.7259736</v>
       </c>
       <c r="G3" t="n">
-        <v>134.8534096</v>
+        <v>1191.005983</v>
       </c>
       <c r="H3" t="n">
-        <v>16.41462091</v>
+        <v>131.53</v>
       </c>
       <c r="I3" t="n">
-        <v>4883.804429</v>
+        <v>16087.52</v>
       </c>
       <c r="J3" t="n">
-        <v>49.66602141</v>
+        <v>225.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>662.3550521</v>
+        <v>2283.423579</v>
       </c>
       <c r="C4" t="n">
-        <v>134.9269394</v>
+        <v>151.6887337</v>
       </c>
       <c r="D4" t="n">
-        <v>3741.014533</v>
+        <v>11406.19551</v>
       </c>
       <c r="E4" t="n">
-        <v>418.2031236</v>
+        <v>1109.480617</v>
       </c>
       <c r="F4" t="n">
-        <v>34.38467517</v>
+        <v>361.1836455</v>
       </c>
       <c r="G4" t="n">
-        <v>153.6529403</v>
+        <v>1279.797159</v>
       </c>
       <c r="H4" t="n">
-        <v>19.96112333</v>
+        <v>121.1788566</v>
       </c>
       <c r="I4" t="n">
-        <v>5221.328362</v>
+        <v>16974.09157</v>
       </c>
       <c r="J4" t="n">
-        <v>56.82997507</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>640.4720634</v>
-      </c>
-      <c r="C5" t="n">
-        <v>122.1179645</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4152.749022</v>
-      </c>
-      <c r="E5" t="n">
-        <v>345.6120546</v>
-      </c>
-      <c r="F5" t="n">
-        <v>41.13427189</v>
-      </c>
-      <c r="G5" t="n">
-        <v>201.8539229</v>
-      </c>
-      <c r="H5" t="n">
-        <v>23.5530283</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5586.341909</v>
-      </c>
-      <c r="J5" t="n">
-        <v>58.84958205</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>684.4348292</v>
-      </c>
-      <c r="C6" t="n">
-        <v>99.31919636000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4457.129833</v>
-      </c>
-      <c r="E6" t="n">
-        <v>386.3324388</v>
-      </c>
-      <c r="F6" t="n">
-        <v>52.50397419</v>
-      </c>
-      <c r="G6" t="n">
-        <v>194.4954612</v>
-      </c>
-      <c r="H6" t="n">
-        <v>21.5410764</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5956.181138</v>
-      </c>
-      <c r="J6" t="n">
-        <v>60.42432908</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>863.375055</v>
-      </c>
-      <c r="C7" t="n">
-        <v>52.06845579</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5179.462827</v>
-      </c>
-      <c r="E7" t="n">
-        <v>537.4836340000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>62.03292272</v>
-      </c>
-      <c r="G7" t="n">
-        <v>310.7081537</v>
-      </c>
-      <c r="H7" t="n">
-        <v>43.00164247</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7155.545068</v>
-      </c>
-      <c r="J7" t="n">
-        <v>107.4123772</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>928.6530576</v>
-      </c>
-      <c r="C8" t="n">
-        <v>58.20448746</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5452.212097</v>
-      </c>
-      <c r="E8" t="n">
-        <v>578.22779</v>
-      </c>
-      <c r="F8" t="n">
-        <v>71.9211028</v>
-      </c>
-      <c r="G8" t="n">
-        <v>378.2350931</v>
-      </c>
-      <c r="H8" t="n">
-        <v>41.27018624</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7647.092035</v>
-      </c>
-      <c r="J8" t="n">
-        <v>138.3682211</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1032.68</v>
-      </c>
-      <c r="C9" t="n">
-        <v>71.34</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6006.22</v>
-      </c>
-      <c r="E9" t="n">
-        <v>612.96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>96.67</v>
-      </c>
-      <c r="G9" t="n">
-        <v>367.86</v>
-      </c>
-      <c r="H9" t="n">
-        <v>46.65</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8389.84</v>
-      </c>
-      <c r="J9" t="n">
-        <v>155.46</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1091.9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>69.87</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6537.78</v>
-      </c>
-      <c r="E10" t="n">
-        <v>634.55</v>
-      </c>
-      <c r="F10" t="n">
-        <v>92.52</v>
-      </c>
-      <c r="G10" t="n">
-        <v>398.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>50.97</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9054.92</v>
-      </c>
-      <c r="J10" t="n">
-        <v>179.13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1214.21</v>
-      </c>
-      <c r="C11" t="n">
-        <v>76.84999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6991.86</v>
-      </c>
-      <c r="E11" t="n">
-        <v>698.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>155.54</v>
-      </c>
-      <c r="G11" t="n">
-        <v>490.63</v>
-      </c>
-      <c r="H11" t="n">
-        <v>55.48</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9970.57</v>
-      </c>
-      <c r="J11" t="n">
-        <v>287.71</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1402.2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>76.97</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7444.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>796.92</v>
-      </c>
-      <c r="F12" t="n">
-        <v>187</v>
-      </c>
-      <c r="G12" t="n">
-        <v>543.0700000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>58.37</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10706.38</v>
-      </c>
-      <c r="J12" t="n">
-        <v>197.56</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2294.550242</v>
-      </c>
-      <c r="C13" t="n">
-        <v>144.25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10770.47</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1011.99</v>
-      </c>
-      <c r="F13" t="n">
-        <v>317.7259736</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1191.005983</v>
-      </c>
-      <c r="H13" t="n">
-        <v>131.53</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16087.52</v>
-      </c>
-      <c r="J13" t="n">
-        <v>225.99</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2283.423579</v>
-      </c>
-      <c r="C14" t="n">
-        <v>151.6887337</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11406.19551</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1109.480617</v>
-      </c>
-      <c r="F14" t="n">
-        <v>361.1836455</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1279.797159</v>
-      </c>
-      <c r="H14" t="n">
-        <v>121.1788566</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16974.09157</v>
-      </c>
-      <c r="J14" t="n">
         <v>261.1434661</v>
       </c>
     </row>
